--- a/資料型態描述.xlsx
+++ b/資料型態描述.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Downloads\Python資料科學\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3445CAA-3905-4847-AA53-413B8C02A0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC53887-DEA4-44F1-82DF-C8B916740569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BD4BF8EA-5120-41D4-A29C-F291D3D00846}"/>
+    <workbookView minimized="1" xWindow="13170" yWindow="0" windowWidth="6030" windowHeight="10800" xr2:uid="{BD4BF8EA-5120-41D4-A29C-F291D3D00846}"/>
   </bookViews>
   <sheets>
     <sheet name="資料型態" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
   <si>
     <t>Index</t>
   </si>
@@ -51,478 +51,495 @@
     <t>交易標的</t>
   </si>
   <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>土地區段位置/建物區段門牌</t>
+  </si>
+  <si>
+    <t>土地移轉總面積(平方公尺)</t>
+  </si>
+  <si>
+    <t>建物型態</t>
+  </si>
+  <si>
+    <t>建物現況格局-廳</t>
+  </si>
+  <si>
+    <t>建物現況格局-房</t>
+  </si>
+  <si>
+    <t>建物現況格局-衛</t>
+  </si>
+  <si>
+    <t>建物現況格局-隔間</t>
+  </si>
+  <si>
+    <t>建物移轉總面積(平方公尺)</t>
+  </si>
+  <si>
+    <t>建築完成年月</t>
+  </si>
+  <si>
+    <t>有無管理組織</t>
+  </si>
+  <si>
+    <t>移轉層次</t>
+  </si>
+  <si>
+    <t>總樓層數</t>
+  </si>
+  <si>
+    <t>鄉鎮市區</t>
+  </si>
+  <si>
+    <t>非都市土地使用分區</t>
+  </si>
+  <si>
+    <t>非都市土地使用編定</t>
+  </si>
+  <si>
+    <t>num_of_bus_stations_in_100m</t>
+  </si>
+  <si>
+    <t>income_avg</t>
+  </si>
+  <si>
+    <t>income_var</t>
+  </si>
+  <si>
+    <t>location_type</t>
+  </si>
+  <si>
+    <t>low_use_electricity</t>
+  </si>
+  <si>
+    <t>nearest_tarin_station</t>
+  </si>
+  <si>
+    <t>nearest_tarin_station_distance</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>price_per_ping</t>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有/無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個感覺不太重要，移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車位類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總筆數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了要格式化外，後面都有00:00，要移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別</t>
+  </si>
+  <si>
+    <t>類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table下來有蠻多一樣的 e.g. 含增建或未登記建物。5777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感覺可以用類似等第的方式分級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X層，看要不要轉成int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35587個0 (not NULL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL筆數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ohe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請注意，這只是一個建議，實際上房屋材料的好壞可能會受到許多因素影響，例如建造工藝、維護情況等。</t>
+  </si>
+  <si>
+    <t>編碼 (根據房屋材料從耐用度、堅固度等角度進行排序)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見其他登記事項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼筋混凝土造 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼筋混凝土造 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼骨混凝土造 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">預力混凝土造 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼筋混凝土加強磚造 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">加強磚造 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">壁式預鑄鋼筋混凝土造 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">磚造 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">土磚石混合造 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">石造 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">土木造 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">土造 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">竹造 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">鐵造 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">見使用執照 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0     36183</t>
+  </si>
+  <si>
+    <t>6.0      2282</t>
+  </si>
+  <si>
+    <t>17.0     1486</t>
+  </si>
+  <si>
+    <t>2.0      1383</t>
+  </si>
+  <si>
+    <t>8.0       199</t>
+  </si>
+  <si>
+    <t>16.0      101</t>
+  </si>
+  <si>
+    <t>3.0        64</t>
+  </si>
+  <si>
+    <t>10.0       34</t>
+  </si>
+  <si>
+    <t>4.0        16</t>
+  </si>
+  <si>
+    <t>13.0       14</t>
+  </si>
+  <si>
+    <t>9.0        10</t>
+  </si>
+  <si>
+    <t>5.0         6</t>
+  </si>
+  <si>
+    <t>7.0         6</t>
+  </si>
+  <si>
+    <t>11.0        4</t>
+  </si>
+  <si>
+    <t>12.0        3</t>
+  </si>
+  <si>
+    <t>14.0        1</t>
+  </si>
+  <si>
+    <t>15.0        1</t>
+  </si>
+  <si>
+    <t>label encoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都市土地使用分區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車位移轉總面積(平方公尺)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>鋼筋混凝土造</t>
+  </si>
+  <si>
+    <t>住家用</t>
+  </si>
+  <si>
+    <t>房地(土地+建物)</t>
+  </si>
+  <si>
+    <t>土地1建物1車位0</t>
+  </si>
+  <si>
+    <t>含增建或未登記建物。</t>
+  </si>
+  <si>
+    <t>臺北市萬華區康定路91~120號</t>
+  </si>
+  <si>
+    <t>住宅大樓(11層含以上有電梯)</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>三層</t>
+  </si>
+  <si>
+    <t>RPVNMLPJKIKFFFA18DA</t>
+  </si>
+  <si>
+    <t>坡道平面</t>
+  </si>
+  <si>
+    <t>住</t>
+  </si>
+  <si>
+    <t>中山區</t>
+  </si>
+  <si>
+    <t>住宅區</t>
+  </si>
+  <si>
+    <t>ROOFTOP</t>
+  </si>
+  <si>
+    <t>台北101/世貿中心站</t>
+  </si>
+  <si>
+    <t>交易月份 (交易年月日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int (date)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int (原為類別)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對數縮放</t>
+  </si>
+  <si>
+    <t>對數縮放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前處理方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalization (感覺也可以不處理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補值方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料很亂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最少類的有441個，感覺可以提取關鍵字賦值(類似order encoding)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label encoding or order encoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料很亂，e.g. 八層，陽台，電梯樓梯間。看要不要切割多個欄位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出現次數最多的類別</t>
+  </si>
+  <si>
+    <t>(最後處理，沒時間處理看要不要移除)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理完之後他(們)就變數值欄位了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary encoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增未知類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眾數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄉鎮市區代表就好。臺北市萬華區康定路91~120號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(原為類別，分成3欄位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不處理(原label encoding)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>交易筆棟數</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>土地區段位置/建物區段門牌</t>
-  </si>
-  <si>
-    <t>土地移轉總面積(平方公尺)</t>
-  </si>
-  <si>
-    <t>建物型態</t>
-  </si>
-  <si>
-    <t>建物現況格局-廳</t>
-  </si>
-  <si>
-    <t>建物現況格局-房</t>
-  </si>
-  <si>
-    <t>建物現況格局-衛</t>
-  </si>
-  <si>
-    <t>建物現況格局-隔間</t>
-  </si>
-  <si>
-    <t>建物移轉總面積(平方公尺)</t>
-  </si>
-  <si>
-    <t>建築完成年月</t>
-  </si>
-  <si>
-    <t>有無管理組織</t>
-  </si>
-  <si>
-    <t>移轉層次</t>
-  </si>
-  <si>
-    <t>總樓層數</t>
-  </si>
-  <si>
-    <t>鄉鎮市區</t>
-  </si>
-  <si>
-    <t>非都市土地使用分區</t>
-  </si>
-  <si>
-    <t>非都市土地使用編定</t>
-  </si>
-  <si>
-    <t>num_of_bus_stations_in_100m</t>
-  </si>
-  <si>
-    <t>income_avg</t>
-  </si>
-  <si>
-    <t>income_var</t>
-  </si>
-  <si>
-    <t>location_type</t>
-  </si>
-  <si>
-    <t>low_use_electricity</t>
-  </si>
-  <si>
-    <t>nearest_tarin_station</t>
-  </si>
-  <si>
-    <t>nearest_tarin_station_distance</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lng</t>
-  </si>
-  <si>
-    <t>price_per_ping</t>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有/無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>這個感覺不太重要，移除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>車位類別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總筆數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>column name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了要格式化外，後面都有00:00，要移除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後移除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>類別</t>
-  </si>
-  <si>
-    <t>類別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table下來有蠻多一樣的 e.g. 含增建或未登記建物。5777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感覺可以用類似等第的方式分級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X層，看要不要轉成int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>緯度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35587個0 (not NULL)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL筆數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>column index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>binary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ohe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請注意，這只是一個建議，實際上房屋材料的好壞可能會受到許多因素影響，例如建造工藝、維護情況等。</t>
-  </si>
-  <si>
-    <t>編碼 (根據房屋材料從耐用度、堅固度等角度進行排序)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>見其他登記事項</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼筋混凝土造 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼筋混凝土造 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼骨混凝土造 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">預力混凝土造 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼筋混凝土加強磚造 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">加強磚造 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">壁式預鑄鋼筋混凝土造 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">磚造 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">土磚石混合造 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">石造 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">土木造 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">土造 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">竹造 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">鐵造 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">見使用執照 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0     36183</t>
-  </si>
-  <si>
-    <t>6.0      2282</t>
-  </si>
-  <si>
-    <t>17.0     1486</t>
-  </si>
-  <si>
-    <t>2.0      1383</t>
-  </si>
-  <si>
-    <t>8.0       199</t>
-  </si>
-  <si>
-    <t>16.0      101</t>
-  </si>
-  <si>
-    <t>3.0        64</t>
-  </si>
-  <si>
-    <t>10.0       34</t>
-  </si>
-  <si>
-    <t>4.0        16</t>
-  </si>
-  <si>
-    <t>13.0       14</t>
-  </si>
-  <si>
-    <t>9.0        10</t>
-  </si>
-  <si>
-    <t>5.0         6</t>
-  </si>
-  <si>
-    <t>7.0         6</t>
-  </si>
-  <si>
-    <t>11.0        4</t>
-  </si>
-  <si>
-    <t>12.0        3</t>
-  </si>
-  <si>
-    <t>14.0        1</t>
-  </si>
-  <si>
-    <t>15.0        1</t>
-  </si>
-  <si>
-    <t>label encoding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都市土地使用分區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>車位移轉總面積(平方公尺)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>freq</t>
-  </si>
-  <si>
-    <t>鋼筋混凝土造</t>
-  </si>
-  <si>
-    <t>住家用</t>
-  </si>
-  <si>
-    <t>房地(土地+建物)</t>
-  </si>
-  <si>
-    <t>土地1建物1車位0</t>
-  </si>
-  <si>
-    <t>含增建或未登記建物。</t>
-  </si>
-  <si>
-    <t>臺北市萬華區康定路91~120號</t>
-  </si>
-  <si>
-    <t>住宅大樓(11層含以上有電梯)</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>三層</t>
-  </si>
-  <si>
-    <t>RPVNMLPJKIKFFFA18DA</t>
-  </si>
-  <si>
-    <t>坡道平面</t>
-  </si>
-  <si>
-    <t>住</t>
-  </si>
-  <si>
-    <t>中山區</t>
-  </si>
-  <si>
-    <t>住宅區</t>
-  </si>
-  <si>
-    <t>ROOFTOP</t>
-  </si>
-  <si>
-    <t>台北101/世貿中心站</t>
-  </si>
-  <si>
-    <t>交易月份 (交易年月日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int (date)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int (原為類別)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>對數縮放</t>
-  </si>
-  <si>
-    <t>對數縮放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不處理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前處理方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalization (感覺也可以不處理)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>補值方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料很亂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最少類的有441個，感覺可以提取關鍵字賦值(類似order encoding)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label encoding or order encoding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料很亂，e.g. 八層，陽台，電梯樓梯間。看要不要切割多個欄位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出現次數最多的類別</t>
-  </si>
-  <si>
-    <t>(最後處理，沒時間處理看要不要移除)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>處理完之後他(們)就變數值欄位了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>binary encoding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增未知類別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眾數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄉鎮市區代表就好。臺北市萬華區康定路91~120號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(原為類別，分成3欄位)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不處理(原label encoding)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感覺可以透過交易筆棟數推測</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +601,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +656,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -654,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,7 +744,13 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1046,9 +1075,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E508CFAF-7C4D-4510-B6CE-574A00524049}">
   <dimension ref="A1:CK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P5" sqref="A1:R40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -1071,37 +1100,37 @@
   <sheetData>
     <row r="1" spans="1:18" s="14" customFormat="1" ht="32">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="L1" s="18">
         <v>0.25</v>
@@ -1113,16 +1142,16 @@
         <v>0.75</v>
       </c>
       <c r="O1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1133,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -1161,16 +1190,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2">
         <v>6767</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H3" s="2">
         <v>59636</v>
@@ -1179,7 +1208,7 @@
         <v>17</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R3" s="2">
         <v>51533</v>
@@ -1193,16 +1222,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2">
         <v>8777</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" s="2">
         <v>57626</v>
@@ -1211,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R4" s="2">
         <v>43557</v>
@@ -1221,69 +1250,85 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="D5" s="23">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23">
         <v>66403</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="23">
         <v>7.09467945725343</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="23">
         <v>3.58771751537842</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="23">
         <v>1</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="23">
         <v>4</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="23">
         <v>7</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="23">
         <v>10</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="23">
         <v>12</v>
       </c>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="C6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23">
         <v>66403</v>
       </c>
-      <c r="P6" s="2">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23">
         <v>4</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R6" s="2">
+      <c r="Q6" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" s="23">
         <v>38617</v>
       </c>
     </row>
@@ -1291,36 +1336,46 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
+        <v>66403</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6">
+        <v>339</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="6">
+        <v>27288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="2">
-        <v>66403</v>
-      </c>
-      <c r="P7" s="2">
-        <v>339</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R7" s="2">
-        <v>27288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="B8" s="20"/>
       <c r="C8" s="7"/>
       <c r="H8" s="2">
         <v>66403</v>
@@ -1336,7 +1391,9 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="20"/>
+      <c r="B9" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="H9" s="2">
         <v>66403</v>
@@ -1352,7 +1409,9 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="20"/>
+      <c r="B10" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="H10" s="2">
         <v>66403</v>
@@ -1372,16 +1431,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5">
         <v>36611</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="6">
         <v>29792</v>
@@ -1390,7 +1449,7 @@
         <v>6059</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R11" s="6">
         <v>8142</v>
@@ -1401,19 +1460,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="6">
         <v>66403</v>
@@ -1422,7 +1481,7 @@
         <v>14650</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R12" s="6">
         <v>637</v>
@@ -1433,16 +1492,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H13" s="2">
         <v>66403</v>
@@ -1474,19 +1533,19 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="H14" s="2">
         <v>66403</v>
@@ -1495,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R14" s="2">
         <v>18990</v>
@@ -1506,16 +1565,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" s="2">
         <v>66403</v>
@@ -1547,16 +1606,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H16" s="2">
         <v>66403</v>
@@ -1588,16 +1647,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H17" s="2">
         <v>66403</v>
@@ -1628,31 +1687,39 @@
       <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="B18" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23">
         <v>66403</v>
       </c>
-      <c r="P18" s="2">
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23">
         <v>2</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R18" s="2">
+      <c r="Q18" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="R18" s="23">
         <v>59988</v>
       </c>
     </row>
@@ -1660,58 +1727,63 @@
       <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="B19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23">
         <v>66403</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="23">
         <v>134.514507025282</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="23">
         <v>478.21346708950603</v>
       </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
+      <c r="K19" s="23">
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
         <v>53.045000000000002</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="23">
         <v>98.14</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="23">
         <v>154.81</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="23">
         <v>69125.53</v>
       </c>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:89" s="16" customFormat="1">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="16">
         <v>13810</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H20" s="16">
         <v>66403</v>
@@ -1743,19 +1815,19 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H21" s="2">
         <v>66403</v>
@@ -1764,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R21" s="2">
         <v>36137</v>
@@ -1774,34 +1846,41 @@
       <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="23">
         <v>6959</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="E22" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="23">
         <v>59444</v>
       </c>
-      <c r="P22" s="2">
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23">
         <v>393</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R22" s="2">
+      <c r="Q22" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="R22" s="23">
         <v>7159</v>
       </c>
     </row>
@@ -1810,13 +1889,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="6">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H23" s="6">
         <v>66403</v>
@@ -1825,7 +1904,7 @@
         <v>66403</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R23" s="6">
         <v>1</v>
@@ -1836,22 +1915,22 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="2">
         <v>6909</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H24" s="2">
         <v>59494</v>
@@ -1883,16 +1962,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="5">
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2000,10 +2079,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="5">
         <v>46816</v>
@@ -2016,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R26" s="6">
         <v>14708</v>
@@ -2027,19 +2106,19 @@
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2">
         <v>595</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H27" s="2">
         <v>65808</v>
@@ -2048,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R27" s="2">
         <v>38069</v>
@@ -2059,16 +2138,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" s="2">
         <v>66403</v>
@@ -2077,7 +2156,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R28" s="2">
         <v>9271</v>
@@ -2088,13 +2167,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="6">
         <v>66394</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" s="6">
         <v>9</v>
@@ -2103,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R29" s="6">
         <v>8</v>
@@ -2114,13 +2193,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="6">
         <v>66403</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30" s="6">
         <v>0</v>
@@ -2131,22 +2210,22 @@
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H31" s="2">
         <v>66399</v>
@@ -2178,22 +2257,22 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>346</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H32" s="2">
         <v>66057</v>
@@ -2225,22 +2304,22 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>346</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H33" s="2">
         <v>66057</v>
@@ -2272,19 +2351,19 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2">
         <v>4</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H34" s="2">
         <v>66399</v>
@@ -2293,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R34" s="2">
         <v>45701</v>
@@ -2303,78 +2382,89 @@
       <c r="A35" s="2">
         <v>30</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="23">
         <v>346</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" s="2">
+      <c r="E35" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="23">
         <v>66057</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="23">
         <v>7.8178859167089901E-2</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="23">
         <v>4.9522563205909899E-2</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="23">
         <v>1.6399999999999901E-2</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="23">
         <v>4.5599999999999898E-2</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="23">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="23">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="23">
         <v>0.36869999999999897</v>
       </c>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="2">
         <v>31</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="23">
         <v>4</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="E36" s="22"/>
+      <c r="F36" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="23">
         <v>66399</v>
       </c>
-      <c r="P36" s="2">
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23">
         <v>84</v>
       </c>
-      <c r="Q36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="R36" s="2">
+      <c r="Q36" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="R36" s="23">
         <v>4082</v>
       </c>
     </row>
@@ -2382,43 +2472,44 @@
       <c r="A37" s="2">
         <v>32</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="B37" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="23">
         <v>4</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="E37" s="22"/>
+      <c r="F37" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="23">
         <v>66399</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="23">
         <v>623.32596963984997</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="23">
         <v>511.26693979532303</v>
       </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
+      <c r="K37" s="23">
+        <v>0</v>
+      </c>
+      <c r="L37" s="23">
         <v>298.41851250000002</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="23">
         <v>495.08597370000001</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="23">
         <v>751.62823849999995</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="23">
         <v>6007.0855600000004</v>
       </c>
     </row>
@@ -2426,46 +2517,46 @@
       <c r="A38" s="2">
         <v>33</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="B38" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="23">
         <v>4</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="E38" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" s="23">
         <v>66399</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="23">
         <v>25.0558377519394</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="23">
         <v>3.6826937389263799E-2</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="23">
         <v>24.965285999999999</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="23">
         <v>25.032969399999999</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="23">
         <v>25.051784600000001</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="23">
         <v>25.077493100000002</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="23">
         <v>25.1728123</v>
       </c>
     </row>
@@ -2473,46 +2564,46 @@
       <c r="A39" s="2">
         <v>34</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="B39" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="23">
         <v>4</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="E39" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="23">
         <v>66399</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="23">
         <v>121.54382945789899</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="23">
         <v>3.1908264672525902E-2</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="23">
         <v>121.4646572</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="23">
         <v>121.519021</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="23">
         <v>121.5412362</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="23">
         <v>121.5654177</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="23">
         <v>121.6242235</v>
       </c>
     </row>
@@ -2521,10 +2612,10 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -2532,7 +2623,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -2563,7 +2654,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2571,10 +2662,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2582,10 +2673,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2593,10 +2684,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2604,10 +2695,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2615,10 +2706,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2626,10 +2717,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2637,10 +2728,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2648,10 +2739,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2659,10 +2750,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2670,10 +2761,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2681,10 +2772,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2692,10 +2783,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2703,10 +2794,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2714,10 +2805,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2725,10 +2816,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2736,10 +2827,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2747,15 +2838,15 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2771,15 +2862,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072BC60A40847C1429B3470479F47CE76" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c9719b1ea138216e1a8d623b607c569">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ae201aad-d4de-447b-8622-11c2995c16c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c0598bb3d02a966721ac5e60a28af816" ns3:_="">
     <xsd:import namespace="ae201aad-d4de-447b-8622-11c2995c16c9"/>
@@ -2911,6 +2993,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C06BB4-3584-442B-9729-26503650E08B}">
   <ds:schemaRefs>
@@ -2928,14 +3019,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1793A2FD-318E-4793-BC84-4BF87555C7E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56FB467F-9F98-48B9-9E96-1D1807528E64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2951,4 +3034,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1793A2FD-318E-4793-BC84-4BF87555C7E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>